--- a/medicine/Mort/Cimetière_des_Prés_(Clichy-sous-Bois)/Cimetière_des_Prés_(Clichy-sous-Bois).xlsx
+++ b/medicine/Mort/Cimetière_des_Prés_(Clichy-sous-Bois)/Cimetière_des_Prés_(Clichy-sous-Bois).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pr%C3%A9s_(Clichy-sous-Bois)</t>
+          <t>Cimetière_des_Prés_(Clichy-sous-Bois)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des Prés, couramment appelé nouveau cimetière, est un cimetière se trouvant rue des Prés à Clichy-sous-Bois. C'est l'un des deux cimetières de la commune, avec le cimetière de la Colline, dit ancien cimetière[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Prés, couramment appelé nouveau cimetière, est un cimetière se trouvant rue des Prés à Clichy-sous-Bois. C'est l'un des deux cimetières de la commune, avec le cimetière de la Colline, dit ancien cimetière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pr%C3%A9s_(Clichy-sous-Bois)</t>
+          <t>Cimetière_des_Prés_(Clichy-sous-Bois)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Prés est accessible par la ligne 4 du tramway d'Île-de-France.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pr%C3%A9s_(Clichy-sous-Bois)</t>
+          <t>Cimetière_des_Prés_(Clichy-sous-Bois)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière est notamment connu pour être le point de départ des émeutes de 2005 dans les banlieues françaises, lorsque la police nationale essaya d'y interpeller des adolescents, dont trois fuirent dans un poste de transformation EDF, jouxtant le cimetière[3], pour y être electrocutés[4].
-En 2019, lui est adjoint un ossuaire[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière est notamment connu pour être le point de départ des émeutes de 2005 dans les banlieues françaises, lorsque la police nationale essaya d'y interpeller des adolescents, dont trois fuirent dans un poste de transformation EDF, jouxtant le cimetière, pour y être electrocutés.
+En 2019, lui est adjoint un ossuaire,.
 </t>
         </is>
       </c>
